--- a/mobi_client/mobi_client/mobi_config/no_limit_state_excel/003_成就任务表.xlsx
+++ b/mobi_client/mobi_client/mobi_config/no_limit_state_excel/003_成就任务表.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\mobi_configGit\mobi_client\mobi_client\mobi_config\no_limit_state_excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\mobi_configGit\mobi_config\mobi_client\mobi_client\mobi_config\no_limit_state_excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8299E5B-DD5F-4882-8453-444A23115E88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{430DB78D-9C1B-4DA7-8212-086E3D0F2B19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-26850" yWindow="0" windowWidth="13500" windowHeight="20835" tabRatio="779" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-24900" yWindow="1455" windowWidth="13500" windowHeight="16545" tabRatio="779" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="achievement|成就任务表++" sheetId="1" r:id="rId1"/>

--- a/mobi_client/mobi_client/mobi_config/no_limit_state_excel/003_成就任务表.xlsx
+++ b/mobi_client/mobi_client/mobi_config/no_limit_state_excel/003_成就任务表.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\mobi_configGit\mobi_config\mobi_client\mobi_client\mobi_config\no_limit_state_excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{430DB78D-9C1B-4DA7-8212-086E3D0F2B19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C067EC8-6221-4617-AAAF-ED61EFA9BDEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-24900" yWindow="1455" windowWidth="13500" windowHeight="16545" tabRatio="779" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="17640" tabRatio="779" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="achievement|成就任务表++" sheetId="1" r:id="rId1"/>
@@ -92,7 +92,7 @@
     <t>aaint</t>
   </si>
   <si>
-    <t>1;10101001|2;10101002|3;10101003|4;10101004|5;10101005|6;10101006|7;10101007|8;10101008|9;10101009|10;10101010</t>
+    <t>1;10101001|2;10101002|3;10101003|4;10101004|5;10101005|6;10101006|7;10101007|8;10101008|9;10101009|10;10101010|11;10101011|12;10101012|13;10101013|14;10101014|15;10101015|16;10101016|17;10101017|18;10101018|19;10101019|20;10101020</t>
   </si>
   <si>
     <t>队伍等级提升</t>
@@ -2259,7 +2259,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="14">
+  <fonts count="13">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2272,6 +2272,7 @@
       <sz val="10"/>
       <color indexed="9"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -2279,17 +2280,20 @@
       <sz val="10"/>
       <color indexed="8"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -2327,14 +2331,6 @@
     <font>
       <sz val="9.8000000000000007"/>
       <color rgb="FF6A8759"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color indexed="9"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
@@ -2415,7 +2411,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2755,8 +2751,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:G3606"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:XFD4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -35331,7 +35327,10 @@
       <c r="G3606" s="6"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="13" type="noConversion"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:F3999">
+    <sortCondition ref="A4"/>
+  </sortState>
+  <phoneticPr fontId="12" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
@@ -35453,7 +35452,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="13" type="noConversion"/>
+  <phoneticPr fontId="12" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" copies="0" r:id="rId1"/>
 </worksheet>
